--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H2">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I2">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J2">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>166.0880157299476</v>
+        <v>10.39027540797111</v>
       </c>
       <c r="R2">
-        <v>1494.792141569528</v>
+        <v>93.51247867174</v>
       </c>
       <c r="S2">
-        <v>0.008086326974799437</v>
+        <v>0.0006775812820816903</v>
       </c>
       <c r="T2">
-        <v>0.008086326974799437</v>
+        <v>0.0006775812820816901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H3">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I3">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J3">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>281.9604286518901</v>
+        <v>98.98933231546911</v>
       </c>
       <c r="R3">
-        <v>2537.643857867011</v>
+        <v>890.903990839222</v>
       </c>
       <c r="S3">
-        <v>0.0137278069703778</v>
+        <v>0.006455393728184472</v>
       </c>
       <c r="T3">
-        <v>0.01372780697037779</v>
+        <v>0.00645539372818447</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H4">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I4">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J4">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>121.2850072382478</v>
+        <v>42.58016610271778</v>
       </c>
       <c r="R4">
-        <v>1091.56506514423</v>
+        <v>383.22149492446</v>
       </c>
       <c r="S4">
-        <v>0.005905002967005448</v>
+        <v>0.002776781404369399</v>
       </c>
       <c r="T4">
-        <v>0.005905002967005448</v>
+        <v>0.002776781404369397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H5">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I5">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J5">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>5615.201186661583</v>
+        <v>1000.584684548844</v>
       </c>
       <c r="R5">
-        <v>50536.81067995425</v>
+        <v>9005.262160939597</v>
       </c>
       <c r="S5">
-        <v>0.2733872918227662</v>
+        <v>0.06525115329164281</v>
       </c>
       <c r="T5">
-        <v>0.2733872918227663</v>
+        <v>0.06525115329164279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H6">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I6">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J6">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
-        <v>9532.683779737765</v>
+        <v>9532.683779737763</v>
       </c>
       <c r="R6">
-        <v>85794.1540176399</v>
+        <v>85794.15401763987</v>
       </c>
       <c r="S6">
-        <v>0.4641177610048799</v>
+        <v>0.6216551384382714</v>
       </c>
       <c r="T6">
-        <v>0.4641177610048799</v>
+        <v>0.6216551384382711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H7">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I7">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J7">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
-        <v>4100.474760778711</v>
+        <v>4100.47476077871</v>
       </c>
       <c r="R7">
         <v>36904.2728470084</v>
       </c>
       <c r="S7">
-        <v>0.1996398085788584</v>
+        <v>0.2674043599865064</v>
       </c>
       <c r="T7">
-        <v>0.1996398085788584</v>
+        <v>0.2674043599865062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>29.933899</v>
       </c>
       <c r="I8">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J8">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>210.5285174795085</v>
+        <v>37.51452588219888</v>
       </c>
       <c r="R8">
-        <v>1894.756657315576</v>
+        <v>337.63073293979</v>
       </c>
       <c r="S8">
-        <v>0.01025000161737811</v>
+        <v>0.002446435685857399</v>
       </c>
       <c r="T8">
-        <v>0.01025000161737811</v>
+        <v>0.002446435685857398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>29.933899</v>
       </c>
       <c r="I9">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J9">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>357.4051431169319</v>
@@ -1004,10 +1004,10 @@
         <v>3216.646288052387</v>
       </c>
       <c r="S9">
-        <v>0.01740098367131845</v>
+        <v>0.02330747026300903</v>
       </c>
       <c r="T9">
-        <v>0.01740098367131845</v>
+        <v>0.02330747026300902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>29.933899</v>
       </c>
       <c r="I10">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J10">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>153.7374786142122</v>
@@ -1066,10 +1066,10 @@
         <v>1383.63730752791</v>
       </c>
       <c r="S10">
-        <v>0.007485016392616206</v>
+        <v>0.01002568592007759</v>
       </c>
       <c r="T10">
-        <v>0.007485016392616206</v>
+        <v>0.01002568592007758</v>
       </c>
     </row>
   </sheetData>
